--- a/results/ex6p1.xlsx
+++ b/results/ex6p1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="ex6p1" sheetId="1" r:id="rId1"/>
@@ -1039,11 +1039,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1188967216"/>
-        <c:axId val="1188963408"/>
+        <c:axId val="1180616624"/>
+        <c:axId val="1180617712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1188967216"/>
+        <c:axId val="1180616624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1086,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188963408"/>
+        <c:crossAx val="1180617712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1094,7 +1094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1188963408"/>
+        <c:axId val="1180617712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188967216"/>
+        <c:crossAx val="1180616624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1537,11 +1537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1188959600"/>
-        <c:axId val="1188972112"/>
+        <c:axId val="1180620976"/>
+        <c:axId val="1180621520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1188959600"/>
+        <c:axId val="1180620976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,7 +1584,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188972112"/>
+        <c:crossAx val="1180621520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1592,7 +1592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1188972112"/>
+        <c:axId val="1180621520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188959600"/>
+        <c:crossAx val="1180620976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3142,7 +3142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
